--- a/Data/Delphi round 1/response sheets/Oliver Moore - give your expert opinion on woodland condition1.xlsx
+++ b/Data/Delphi round 1/response sheets/Oliver Moore - give your expert opinion on woodland condition1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plantlifeuk-my.sharepoint.com/personal/omoore_plantlife_org_uk/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Woodland-condition/Data/Delphi round 1/response sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{241CEE9D-2FCD-4C95-BD8C-0EAD03278FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E22E230-B597-46FA-9344-B9B30264746D}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{241CEE9D-2FCD-4C95-BD8C-0EAD03278FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86DF32CB-B82E-4F10-813B-6047F845DD42}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="14" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="10" activeTab="13" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree age distribution" sheetId="20" r:id="rId1"/>
@@ -3482,6 +3482,15 @@
                 <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3496,6 +3505,15 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18598,21 +18616,21 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
-    <col min="12" max="12" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="62.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
@@ -18621,12 +18639,12 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>178</v>
       </c>
@@ -18642,21 +18660,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -18665,7 +18683,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -18674,7 +18692,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -18695,7 +18713,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -18714,7 +18732,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -18722,11 +18740,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -18741,7 +18759,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -18756,7 +18774,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -18771,7 +18789,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13" t="s">
@@ -18786,7 +18804,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -18801,7 +18819,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -18816,7 +18834,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -18831,7 +18849,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13"/>
@@ -18846,7 +18864,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -18861,7 +18879,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -18876,7 +18894,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -18891,7 +18909,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13"/>
@@ -18906,7 +18924,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="13" t="s">
@@ -18921,7 +18939,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -18938,7 +18956,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -18953,14 +18971,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -18970,7 +18988,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -18978,7 +18996,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -18986,7 +19004,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -18994,7 +19012,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -19002,7 +19020,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -19010,82 +19028,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -19112,32 +19130,32 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>168</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>197</v>
       </c>
@@ -19153,21 +19171,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -19176,7 +19194,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>102</v>
       </c>
@@ -19185,7 +19203,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -19206,7 +19224,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -19225,7 +19243,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -19233,11 +19251,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -19252,7 +19270,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -19267,7 +19285,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13"/>
@@ -19282,7 +19300,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -19297,7 +19315,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -19312,7 +19330,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13" t="s">
@@ -19327,7 +19345,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -19342,7 +19360,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13"/>
@@ -19357,7 +19375,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -19372,7 +19390,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13" t="s">
@@ -19387,7 +19405,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -19402,15 +19420,15 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -19427,7 +19445,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -19442,14 +19460,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -19459,7 +19477,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -19469,7 +19487,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -19477,7 +19495,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -19485,7 +19503,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -19493,7 +19511,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -19501,82 +19519,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -19603,20 +19621,20 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>113</v>
       </c>
@@ -19625,7 +19643,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>114</v>
       </c>
@@ -19636,7 +19654,7 @@
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13" t="s">
         <v>116</v>
@@ -19645,12 +19663,12 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>199</v>
       </c>
@@ -19666,21 +19684,21 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
@@ -19689,7 +19707,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>117</v>
       </c>
@@ -19698,7 +19716,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="27" t="s">
@@ -19719,7 +19737,7 @@
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="27"/>
@@ -19738,7 +19756,7 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="1" t="s">
@@ -19746,11 +19764,11 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="28" t="s">
@@ -19765,7 +19783,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13" t="s">
@@ -19780,7 +19798,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -19795,7 +19813,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -19810,7 +19828,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13"/>
@@ -19825,7 +19843,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13" t="s">
@@ -19840,7 +19858,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -19855,7 +19873,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="14"/>
@@ -19868,7 +19886,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13"/>
@@ -19881,7 +19899,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -19894,7 +19912,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="I27" s="13"/>
@@ -19907,7 +19925,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="I28" s="14"/>
@@ -19920,7 +19938,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="I29" s="14"/>
@@ -19933,7 +19951,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="D30" s="27" t="s">
@@ -19950,7 +19968,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="D31" s="27"/>
@@ -19965,14 +19983,14 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="15" t="s">
@@ -19980,7 +19998,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -19988,7 +20006,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -19996,7 +20014,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="16" t="s">
@@ -20004,7 +20022,7 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="16" t="s">
@@ -20012,7 +20030,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="16" t="s">
@@ -20020,82 +20038,82 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="17"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
     </row>
@@ -20122,20 +20140,20 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>173</v>
       </c>
@@ -20154,12 +20172,12 @@
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
     </row>
-    <row r="3" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>200</v>
       </c>
@@ -20175,21 +20193,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -20198,7 +20216,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>122</v>
       </c>
@@ -20207,7 +20225,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -20228,7 +20246,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -20247,7 +20265,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -20255,11 +20273,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -20274,7 +20292,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -20289,7 +20307,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13"/>
@@ -20304,7 +20322,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -20319,7 +20337,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -20334,7 +20352,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13" t="s">
@@ -20349,7 +20367,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -20364,7 +20382,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="14"/>
@@ -20377,7 +20395,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -20390,7 +20408,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="14"/>
@@ -20403,7 +20421,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -20416,7 +20434,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="14"/>
@@ -20429,7 +20447,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -20442,7 +20460,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -20459,7 +20477,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -20474,14 +20492,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -20491,7 +20509,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -20499,7 +20517,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -20507,7 +20525,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -20515,7 +20533,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -20523,7 +20541,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -20531,82 +20549,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -20633,20 +20651,20 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>163</v>
       </c>
@@ -20655,7 +20673,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="22" t="s">
         <v>128</v>
@@ -20664,7 +20682,7 @@
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>175</v>
       </c>
@@ -20673,12 +20691,12 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>202</v>
       </c>
@@ -20694,21 +20712,21 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
@@ -20717,7 +20735,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>129</v>
       </c>
@@ -20726,7 +20744,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="27" t="s">
@@ -20747,7 +20765,7 @@
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="27"/>
@@ -20766,7 +20784,7 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="1" t="s">
@@ -20774,11 +20792,11 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="28" t="s">
@@ -20793,7 +20811,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13" t="s">
@@ -20808,7 +20826,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13" t="s">
@@ -20823,7 +20841,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13" t="s">
@@ -20838,7 +20856,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13" t="s">
@@ -20853,7 +20871,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -20866,7 +20884,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -20879,7 +20897,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="14"/>
@@ -20892,7 +20910,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13"/>
@@ -20905,7 +20923,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -20918,7 +20936,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="I27" s="13"/>
@@ -20931,7 +20949,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="I28" s="14"/>
@@ -20944,7 +20962,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="I29" s="14"/>
@@ -20957,7 +20975,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="D30" s="27" t="s">
@@ -20974,7 +20992,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="D31" s="27"/>
@@ -20989,14 +21007,14 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="15" t="s">
@@ -21004,7 +21022,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -21012,7 +21030,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -21020,7 +21038,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="16" t="s">
@@ -21028,7 +21046,7 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="16" t="s">
@@ -21036,7 +21054,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="16" t="s">
@@ -21044,82 +21062,82 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="17"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
     </row>
@@ -21142,24 +21160,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A60C532-5154-4BAB-8C83-06A0BC57A749}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>176</v>
       </c>
@@ -21170,7 +21188,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="22" t="s">
         <v>131</v>
@@ -21181,7 +21199,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13" t="s">
         <v>132</v>
@@ -21192,12 +21210,12 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -21211,21 +21229,21 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
@@ -21234,7 +21252,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>133</v>
       </c>
@@ -21243,7 +21261,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -21268,7 +21286,7 @@
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>100</v>
       </c>
@@ -21291,21 +21309,33 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2">
+        <v>75</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>75</v>
+      </c>
+      <c r="B17" s="2">
+        <v>25</v>
+      </c>
       <c r="I17" s="28" t="s">
         <v>11</v>
       </c>
@@ -21318,7 +21348,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -21331,7 +21361,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -21344,7 +21374,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -21357,7 +21387,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13"/>
@@ -21370,7 +21400,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -21383,7 +21413,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -21396,7 +21426,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="14"/>
@@ -21409,7 +21439,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13"/>
@@ -21422,7 +21452,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -21435,7 +21465,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="I27" s="13"/>
@@ -21448,7 +21478,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="I28" s="14"/>
@@ -21461,7 +21491,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="I29" s="14"/>
@@ -21474,7 +21504,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="D30" s="27" t="s">
@@ -21491,7 +21521,7 @@
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="D31" s="27"/>
@@ -21506,14 +21536,14 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="15" t="s">
@@ -21521,7 +21551,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -21529,7 +21559,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -21537,7 +21567,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="16" t="s">
@@ -21545,7 +21575,7 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="16" t="s">
@@ -21553,7 +21583,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="16" t="s">
@@ -21561,82 +21591,82 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="17"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
     </row>
@@ -21659,49 +21689,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3248C487-FA81-4908-B7DC-7E550BAD9141}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>140</v>
       </c>
@@ -21727,7 +21757,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>150</v>
       </c>
@@ -21739,7 +21769,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>165</v>
       </c>
@@ -21751,7 +21781,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>152</v>
       </c>
@@ -21763,7 +21793,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>127</v>
       </c>
@@ -21775,7 +21805,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>177</v>
       </c>
@@ -21787,7 +21817,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>153</v>
       </c>
@@ -21799,7 +21829,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>148</v>
       </c>
@@ -21811,7 +21841,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>130</v>
       </c>
@@ -21823,7 +21853,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>94</v>
       </c>
@@ -21835,7 +21865,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>149</v>
       </c>
@@ -21847,7 +21877,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>151</v>
       </c>
@@ -21863,7 +21893,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>164</v>
       </c>
@@ -21875,7 +21905,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>166</v>
       </c>
@@ -21887,7 +21917,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>167</v>
       </c>
@@ -21919,20 +21949,20 @@
       <selection activeCell="D30" sqref="D30:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>169</v>
       </c>
@@ -21940,12 +21970,12 @@
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>186</v>
       </c>
@@ -21961,21 +21991,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -21984,7 +22014,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
@@ -21993,7 +22023,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -22014,7 +22044,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -22033,7 +22063,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -22041,15 +22071,15 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="28" t="s">
@@ -22060,7 +22090,7 @@
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -22071,7 +22101,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -22082,7 +22112,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -22093,7 +22123,7 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -22104,35 +22134,35 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -22149,7 +22179,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -22164,14 +22194,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -22181,7 +22211,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -22191,7 +22221,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -22201,7 +22231,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -22209,7 +22239,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -22217,7 +22247,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -22225,82 +22255,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -22327,32 +22357,32 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>184</v>
       </c>
@@ -22368,21 +22398,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -22391,7 +22421,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>41</v>
       </c>
@@ -22400,7 +22430,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -22421,7 +22451,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -22440,7 +22470,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -22448,11 +22478,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -22467,7 +22497,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13"/>
@@ -22480,7 +22510,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -22495,7 +22525,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -22510,7 +22540,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -22525,7 +22555,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -22540,7 +22570,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13" t="s">
@@ -22555,7 +22585,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="13"/>
@@ -22570,7 +22600,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -22585,7 +22615,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -22600,7 +22630,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -22615,7 +22645,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13"/>
@@ -22628,7 +22658,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="13"/>
@@ -22641,7 +22671,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -22658,7 +22688,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -22673,14 +22703,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -22690,7 +22720,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -22700,7 +22730,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -22708,7 +22738,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -22716,7 +22746,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -22724,7 +22754,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -22732,82 +22762,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -22834,30 +22864,30 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>187</v>
       </c>
@@ -22873,21 +22903,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -22896,7 +22926,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>52</v>
       </c>
@@ -22905,7 +22935,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -22926,7 +22956,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -22945,7 +22975,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -22953,11 +22983,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -22969,7 +22999,7 @@
       <c r="M14" s="28"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -22981,7 +23011,7 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -22993,7 +23023,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -23005,7 +23035,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -23017,7 +23047,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -23029,7 +23059,7 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13" t="s">
@@ -23041,31 +23071,31 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -23082,7 +23112,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -23097,14 +23127,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -23114,7 +23144,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -23124,7 +23154,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -23134,7 +23164,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -23142,7 +23172,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -23150,7 +23180,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -23158,82 +23188,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -23260,20 +23290,20 @@
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>59</v>
       </c>
@@ -23282,12 +23312,12 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>188</v>
       </c>
@@ -23303,21 +23333,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -23326,7 +23356,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>60</v>
       </c>
@@ -23335,7 +23365,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -23360,7 +23390,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>20</v>
       </c>
@@ -23383,7 +23413,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -23393,15 +23423,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="28" t="s">
@@ -23416,7 +23446,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -23431,7 +23461,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -23446,7 +23476,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -23461,7 +23491,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -23476,35 +23506,35 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -23521,7 +23551,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -23536,14 +23566,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -23553,7 +23583,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -23561,7 +23591,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -23569,7 +23599,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -23577,7 +23607,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -23585,7 +23615,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -23593,82 +23623,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -23695,30 +23725,30 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:20" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>190</v>
@@ -23734,21 +23764,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:20" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -23757,7 +23787,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>65</v>
       </c>
@@ -23766,7 +23796,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -23787,7 +23817,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -23806,7 +23836,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -23814,11 +23844,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -23836,7 +23866,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="14" t="s">
@@ -23854,7 +23884,7 @@
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="14"/>
@@ -23872,7 +23902,7 @@
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="14"/>
@@ -23890,7 +23920,7 @@
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="14"/>
@@ -23908,7 +23938,7 @@
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="14"/>
@@ -23926,7 +23956,7 @@
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="14"/>
@@ -23944,7 +23974,7 @@
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="14"/>
@@ -23962,7 +23992,7 @@
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13" t="s">
@@ -23980,7 +24010,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="13"/>
@@ -23998,7 +24028,7 @@
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -24016,7 +24046,7 @@
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="13" t="s">
@@ -24034,7 +24064,7 @@
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="13" t="s">
@@ -24052,7 +24082,7 @@
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -24069,7 +24099,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -24084,14 +24114,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -24099,7 +24129,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -24107,7 +24137,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -24115,7 +24145,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -24123,7 +24153,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -24131,7 +24161,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -24139,82 +24169,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -24241,37 +24271,37 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>192</v>
       </c>
@@ -24287,21 +24317,21 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
@@ -24310,7 +24340,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>80</v>
       </c>
@@ -24319,7 +24349,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27" t="s">
@@ -24340,7 +24370,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="27"/>
@@ -24359,7 +24389,7 @@
       <c r="Q12" s="27"/>
       <c r="R12" s="27"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="1" t="s">
@@ -24367,11 +24397,11 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="28" t="s">
@@ -24386,7 +24416,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13" t="s">
@@ -24401,7 +24431,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -24416,7 +24446,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -24431,7 +24461,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13"/>
@@ -24446,7 +24476,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13" t="s">
@@ -24461,7 +24491,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="14"/>
@@ -24476,7 +24506,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -24491,7 +24521,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="14"/>
@@ -24506,7 +24536,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="14"/>
@@ -24519,19 +24549,19 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27" t="s">
@@ -24548,7 +24578,7 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="27"/>
@@ -24563,14 +24593,14 @@
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
     </row>
-    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="D30" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="15" t="s">
@@ -24580,7 +24610,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -24588,7 +24618,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -24596,7 +24626,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -24604,7 +24634,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -24612,7 +24642,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="16" t="s">
@@ -24620,82 +24650,82 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="17"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
     </row>
@@ -24722,28 +24752,28 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
     </row>
-    <row r="3" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>193</v>
       </c>
@@ -24759,21 +24789,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -24782,7 +24812,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>89</v>
       </c>
@@ -24791,7 +24821,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -24812,7 +24842,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -24831,7 +24861,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -24839,11 +24869,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -24858,7 +24888,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -24873,7 +24903,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13"/>
@@ -24888,7 +24918,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -24903,7 +24933,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -24918,7 +24948,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13" t="s">
@@ -24933,7 +24963,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -24946,7 +24976,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="14"/>
@@ -24959,7 +24989,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -24972,7 +25002,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="14"/>
@@ -24985,7 +25015,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -24998,7 +25028,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="14"/>
@@ -25011,7 +25041,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -25024,7 +25054,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -25041,7 +25071,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -25056,14 +25086,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -25071,7 +25101,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -25079,7 +25109,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -25087,7 +25117,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -25095,7 +25125,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -25103,7 +25133,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -25111,82 +25141,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -25213,20 +25243,20 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>157</v>
       </c>
@@ -25234,12 +25264,12 @@
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>194</v>
       </c>
@@ -25255,21 +25285,21 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -25278,7 +25308,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>95</v>
       </c>
@@ -25287,7 +25317,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="27" t="s">
@@ -25308,7 +25338,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="27"/>
@@ -25327,7 +25357,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -25335,11 +25365,11 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="I14" s="28" t="s">
@@ -25354,7 +25384,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="I15" s="13" t="s">
@@ -25369,7 +25399,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="I16" s="13"/>
@@ -25384,7 +25414,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="13"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="I17" s="13"/>
@@ -25399,7 +25429,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="I18" s="13"/>
@@ -25414,7 +25444,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="13"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="I19" s="13" t="s">
@@ -25429,7 +25459,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="13"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="I20" s="13"/>
@@ -25444,7 +25474,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="13"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="I21" s="14"/>
@@ -25459,7 +25489,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="13"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="I22" s="13"/>
@@ -25472,7 +25502,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="13"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="I23" s="14"/>
@@ -25485,7 +25515,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="I24" s="13"/>
@@ -25498,7 +25528,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="I25" s="14"/>
@@ -25511,7 +25541,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="13"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="I26" s="14"/>
@@ -25524,7 +25554,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="13"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="27" t="s">
@@ -25541,7 +25571,7 @@
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="27"/>
@@ -25556,14 +25586,14 @@
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
@@ -25573,7 +25603,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
@@ -25581,7 +25611,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
@@ -25589,7 +25619,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
@@ -25597,7 +25627,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
@@ -25605,7 +25635,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="16" t="s">
@@ -25613,82 +25643,82 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="17"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -25708,12 +25738,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
+      <UserInfo>
+        <DisplayName>Christine Reid</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25908,23 +25943,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
-      <UserInfo>
-        <DisplayName>Christine Reid</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="090e8724-afd2-4a00-8d2e-c87448cad135"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25949,18 +25988,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="090e8724-afd2-4a00-8d2e-c87448cad135"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>